--- a/data/trans_dic/P42-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P42-Estudios-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.8397765279812761</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.84562944104988</v>
+        <v>0.8456294410498797</v>
       </c>
     </row>
     <row r="5">
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7255894410451094</v>
+        <v>0.724756136240662</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8307599039629318</v>
+        <v>0.8317834298233593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8146635659035053</v>
+        <v>0.813859025756162</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8229706051639109</v>
+        <v>0.8199523165478059</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7722214261350938</v>
+        <v>0.7716679929368047</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8715102414958243</v>
+        <v>0.8719221582109374</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8613007051619503</v>
+        <v>0.8647856574094605</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8663021527282987</v>
+        <v>0.8650555764481256</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>0.8728067995573505</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8149989499833782</v>
+        <v>0.8149989499833783</v>
       </c>
     </row>
     <row r="8">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7781356224608449</v>
+        <v>0.7793396982156817</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8563410811264938</v>
+        <v>0.8578141916452592</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8587177538885625</v>
+        <v>0.8567464035260259</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7937589359783627</v>
+        <v>0.7923645650021841</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8198833336617386</v>
+        <v>0.8178254784115898</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8896876856374641</v>
+        <v>0.8893781920695644</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.886781704188463</v>
+        <v>0.8863001633129147</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8365742002114532</v>
+        <v>0.8368437854838621</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.9256038673196538</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8947251727581644</v>
+        <v>0.8947251727581643</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8409666971776667</v>
+        <v>0.8454049725797508</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8877950088829472</v>
+        <v>0.8919065104983329</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8996310718350721</v>
+        <v>0.9039133274262433</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.866729949985851</v>
+        <v>0.8633768861209314</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9033432607794586</v>
+        <v>0.9047659902240175</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9439638036685801</v>
+        <v>0.9431024428800929</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9460540845476373</v>
+        <v>0.9489106475514071</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9197349201338623</v>
+        <v>0.9195666089418705</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7766540691656978</v>
+        <v>0.776297344558097</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8606678981828886</v>
+        <v>0.859973869496746</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8604227331318608</v>
+        <v>0.8599036027914344</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8219715992919024</v>
+        <v>0.8209880441848736</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8042855927408341</v>
+        <v>0.8045536655509333</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8839857611704416</v>
+        <v>0.8830124244316774</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8829597580345639</v>
+        <v>0.8826919631515711</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8507292347529751</v>
+        <v>0.851226198454249</v>
       </c>
     </row>
     <row r="16">
@@ -981,16 +981,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>946932</v>
+        <v>945844</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1108030</v>
+        <v>1109395</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>801478</v>
+        <v>800687</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>548464</v>
+        <v>546452</v>
       </c>
     </row>
     <row r="7">
@@ -1001,16 +1001,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>1007789</v>
+        <v>1007067</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>1162381</v>
+        <v>1162931</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>847361</v>
+        <v>850789</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>577342</v>
+        <v>576511</v>
       </c>
     </row>
     <row r="8">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1232413</v>
+        <v>1234320</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1491579</v>
+        <v>1494145</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1696289</v>
+        <v>1692395</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1284536</v>
+        <v>1282280</v>
       </c>
     </row>
     <row r="11">
@@ -1085,16 +1085,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1298533</v>
+        <v>1295274</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1549662</v>
+        <v>1549123</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1751726</v>
+        <v>1750774</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1353824</v>
+        <v>1354260</v>
       </c>
     </row>
     <row r="12">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>399664</v>
+        <v>401774</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>406215</v>
+        <v>408096</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>491687</v>
+        <v>494028</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>442396</v>
+        <v>440685</v>
       </c>
     </row>
     <row r="15">
@@ -1169,16 +1169,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>429308</v>
+        <v>429985</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>431915</v>
+        <v>431521</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>517059</v>
+        <v>518620</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>469451</v>
+        <v>469365</v>
       </c>
     </row>
     <row r="16">
@@ -1233,16 +1233,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2612741</v>
+        <v>2611541</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3040838</v>
+        <v>3038386</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3016412</v>
+        <v>3014592</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2297541</v>
+        <v>2294792</v>
       </c>
     </row>
     <row r="19">
@@ -1253,16 +1253,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>2705696</v>
+        <v>2706598</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3123222</v>
+        <v>3119784</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3095421</v>
+        <v>3094482</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2377923</v>
+        <v>2379313</v>
       </c>
     </row>
     <row r="20">
